--- a/ig/10-enlevé-définition-statut-du-recrutement-recruitment-status/all-profiles.xlsx
+++ b/ig/10-enlevé-définition-statut-du-recrutement-recruitment-status/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-10T09:09:12+00:00</t>
+    <t>2023-07-10T10:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -836,7 +836,7 @@
     <t>ResearchStudy.status</t>
   </si>
   <si>
-    <t>Statut du recrutement / Recruitment Status</t>
+    <t>Statut de l'essai / Study Status</t>
   </si>
   <si>
     <t>The current state of the study.</t>
